--- a/1des/fpoo/aula10/emprestimo.xlsx
+++ b/1des/fpoo/aula10/emprestimo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno.DSN5131112167\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellington.martins\Desktop\github\senai2022\1des\fpoo\aula10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="F3:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>10000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="4" spans="6:7" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.25">
@@ -483,7 +483,7 @@
       </c>
       <c r="G6" s="2">
         <f>G5*G4</f>
-        <v>600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.25">
@@ -499,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
       </c>
       <c r="G9" s="1">
         <f>G3*(1+G7)^G8</f>
-        <v>11844.53596493827</v>
+        <v>329831.88187700819</v>
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
       </c>
       <c r="G10" s="2">
         <f>G9/G8</f>
-        <v>592.22679824691352</v>
+        <v>2998.4716534273471</v>
       </c>
     </row>
   </sheetData>
